--- a/KUET LLM/excel file/KUET information2k20.xlsx
+++ b/KUET LLM/excel file/KUET information2k20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andromeda\Desktop\Misc-project\KUET LLM\excel file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8591531E-8A92-48FE-8714-5109E78E1B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFED3092-F312-43EB-8C6E-7A2EC975856D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28755" yWindow="1785" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -1530,13 +1530,13 @@
   <dimension ref="A1:C295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B179" sqref="B179:C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="77.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
     <col min="3" max="3" width="245" customWidth="1"/>
     <col min="4" max="9" width="18.85546875" customWidth="1"/>
   </cols>
